--- a/i2o_SU_SanityBQTest/Testcases/testscenarios-victrola.xlsx
+++ b/i2o_SU_SanityBQTest/Testcases/testscenarios-victrola.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_SU\i2o_SU_SanityBQTest\Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D750758-8295-4AA3-A4D9-B1278591A94A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6419B6DD-F353-4C77-B234-8592AC94C8FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -30,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="123">
   <si>
     <t>Execution status</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -83,18 +80,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>TotalRevuenueLastWeek</t>
-  </si>
-  <si>
-    <t>TotalUnitsLastWeek</t>
-  </si>
-  <si>
-    <t>Lastweekbbxpercent</t>
-  </si>
-  <si>
-    <t>f0_</t>
-  </si>
-  <si>
     <t>Columname</t>
   </si>
   <si>
@@ -122,15 +107,9 @@
     <t>10</t>
   </si>
   <si>
-    <t>Top25asinsdata</t>
-  </si>
-  <si>
     <t>Asins</t>
   </si>
   <si>
-    <t>Top25asinsunitsdata</t>
-  </si>
-  <si>
     <t>Validate COGS for TOP 5 Products in prestage and Data mart</t>
   </si>
   <si>
@@ -141,36 +120,6 @@
   </si>
   <si>
     <t>Scenario Name</t>
-  </si>
-  <si>
-    <t>B0063A0NZI</t>
-  </si>
-  <si>
-    <t>40938.0</t>
-  </si>
-  <si>
-    <t>B01KH8JFBY</t>
-  </si>
-  <si>
-    <t>39420.0</t>
-  </si>
-  <si>
-    <t>B07DRR98PP</t>
-  </si>
-  <si>
-    <t>38628.46</t>
-  </si>
-  <si>
-    <t>157.0</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t xml:space="preserve">Compare last weeks cogs in Prestage and Data Mart
@@ -186,12 +135,280 @@
   </si>
   <si>
     <t>Last Run Date And Time</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>PRODUCT_UNITS</t>
+  </si>
+  <si>
+    <t>PRODUCT_COGS</t>
+  </si>
+  <si>
+    <t>LAST_WEEK_REVENUE</t>
+  </si>
+  <si>
+    <t>LAST_WEEK_UNITS</t>
+  </si>
+  <si>
+    <t>LAST_WEEK_BBX_PCNT</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>B07H1B3PY9</t>
+  </si>
+  <si>
+    <t>174927.28</t>
+  </si>
+  <si>
+    <t>B0002KVQBA</t>
+  </si>
+  <si>
+    <t>106110.6</t>
+  </si>
+  <si>
+    <t>B00378KMEG</t>
+  </si>
+  <si>
+    <t>83846.4</t>
+  </si>
+  <si>
+    <t>B00378KMG4</t>
+  </si>
+  <si>
+    <t>81858.96</t>
+  </si>
+  <si>
+    <t>B00006BMQT</t>
+  </si>
+  <si>
+    <t>55882.2</t>
+  </si>
+  <si>
+    <t>B01LW8H3NX</t>
+  </si>
+  <si>
+    <t>48110.94</t>
+  </si>
+  <si>
+    <t>B002RJLHB8</t>
+  </si>
+  <si>
+    <t>47890.59</t>
+  </si>
+  <si>
+    <t>B00378KMF0</t>
+  </si>
+  <si>
+    <t>36724.6</t>
+  </si>
+  <si>
+    <t>B07QQ87Y6M</t>
+  </si>
+  <si>
+    <t>32340.0</t>
+  </si>
+  <si>
+    <t>B07RN2XNK1</t>
+  </si>
+  <si>
+    <t>28512.0</t>
+  </si>
+  <si>
+    <t>1055.0</t>
+  </si>
+  <si>
+    <t>1002.0</t>
+  </si>
+  <si>
+    <t>791.0</t>
+  </si>
+  <si>
+    <t>368.0</t>
+  </si>
+  <si>
+    <t>376.0</t>
+  </si>
+  <si>
+    <t>205.0</t>
+  </si>
+  <si>
+    <t>574.0</t>
+  </si>
+  <si>
+    <t>345.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>05/28/2020 16:55:05</t>
+  </si>
+  <si>
+    <t>2020-05-17</t>
+  </si>
+  <si>
+    <t>344831.4700000001</t>
+  </si>
+  <si>
+    <t>6333.0</t>
+  </si>
+  <si>
+    <t>93.65587939698486</t>
+  </si>
+  <si>
+    <t>05/29/2020 16:53:29</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>344831.47</t>
+  </si>
+  <si>
+    <t>93.65587939698489</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>05/30/2020 00:13:24</t>
+  </si>
+  <si>
+    <t>B00UMVW4VA</t>
+  </si>
+  <si>
+    <t>35949.53</t>
+  </si>
+  <si>
+    <t>B00NQL8Z16</t>
+  </si>
+  <si>
+    <t>26473.8</t>
+  </si>
+  <si>
+    <t>B06XJFK5KG</t>
+  </si>
+  <si>
+    <t>21037.94</t>
+  </si>
+  <si>
+    <t>B01GRYDTWI</t>
+  </si>
+  <si>
+    <t>15060.43</t>
+  </si>
+  <si>
+    <t>B06XJF54CP</t>
+  </si>
+  <si>
+    <t>12452.16</t>
+  </si>
+  <si>
+    <t>B01GRYDU5Y</t>
+  </si>
+  <si>
+    <t>11983.86</t>
+  </si>
+  <si>
+    <t>B01G9CTE18</t>
+  </si>
+  <si>
+    <t>11416.25</t>
+  </si>
+  <si>
+    <t>B06XHVDF6R</t>
+  </si>
+  <si>
+    <t>10735.2</t>
+  </si>
+  <si>
+    <t>B01G9CS7OS</t>
+  </si>
+  <si>
+    <t>10694.35</t>
+  </si>
+  <si>
+    <t>B0196HEI8W</t>
+  </si>
+  <si>
+    <t>7212.0</t>
+  </si>
+  <si>
+    <t>1001.0</t>
+  </si>
+  <si>
+    <t>337.0</t>
+  </si>
+  <si>
+    <t>235.0</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>178.0</t>
+  </si>
+  <si>
+    <t>173.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>05/30/2020 00:13:55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +450,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -269,11 +486,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -292,6 +522,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -620,8 +851,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D7EC7D3-B8C5-4CD6-B81E-DD605F1158F5}" name="Table1" displayName="Table1" ref="A1:I11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
-  <autoFilter ref="A1:I11" xr:uid="{58023CD7-9179-421F-8E4D-220C140C11FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D7EC7D3-B8C5-4CD6-B81E-DD605F1158F5}" name="Table1" displayName="Table1" ref="A1:I21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+  <autoFilter ref="A1:I21" xr:uid="{58023CD7-9179-421F-8E4D-220C140C11FD}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66655932-DF3E-4F71-9A38-2694283919F9}" name="TestID" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{C926FDE5-10D4-4479-BCAF-D48FE648A502}" name="Module" dataDxfId="7"/>
@@ -960,61 +1191,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>50</v>
+      <c r="C1" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -1036,115 +1271,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="57.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="57.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="28.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="19.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="9.85546875" collapsed="true"/>
+    <col min="10" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.1641532182693481E-10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-2.8421709430404007E-14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1165,311 +1424,561 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CDF417-2215-4E0A-8781-4759D2E17EB9}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E2" sqref="E2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="60.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="60.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="23.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="25.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="12.85546875" collapsed="true"/>
+    <col min="10" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>109</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>46</v>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/i2o_SU_SanityBQTest/Testcases/testscenarios-victrola.xlsx
+++ b/i2o_SU_SanityBQTest/Testcases/testscenarios-victrola.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_SU\i2o_SU_SanityBQTest\Testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_i2o_BQ\i2o_SU_SanityBQTest\Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6419B6DD-F353-4C77-B234-8592AC94C8FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47DD61F-76DF-4B58-9E06-3516E064E1E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="90">
   <si>
     <t>Execution status</t>
   </si>
@@ -185,130 +185,31 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>B07H1B3PY9</t>
-  </si>
-  <si>
-    <t>174927.28</t>
-  </si>
-  <si>
-    <t>B0002KVQBA</t>
-  </si>
-  <si>
-    <t>106110.6</t>
-  </si>
-  <si>
-    <t>B00378KMEG</t>
-  </si>
-  <si>
-    <t>83846.4</t>
-  </si>
-  <si>
-    <t>B00378KMG4</t>
-  </si>
-  <si>
-    <t>81858.96</t>
-  </si>
-  <si>
-    <t>B00006BMQT</t>
-  </si>
-  <si>
-    <t>55882.2</t>
-  </si>
-  <si>
-    <t>B01LW8H3NX</t>
-  </si>
-  <si>
-    <t>48110.94</t>
-  </si>
-  <si>
-    <t>B002RJLHB8</t>
-  </si>
-  <si>
-    <t>47890.59</t>
-  </si>
-  <si>
-    <t>B00378KMF0</t>
-  </si>
-  <si>
-    <t>36724.6</t>
-  </si>
-  <si>
-    <t>B07QQ87Y6M</t>
-  </si>
-  <si>
-    <t>32340.0</t>
-  </si>
-  <si>
-    <t>B07RN2XNK1</t>
-  </si>
-  <si>
-    <t>28512.0</t>
-  </si>
-  <si>
-    <t>1055.0</t>
-  </si>
-  <si>
-    <t>1002.0</t>
-  </si>
-  <si>
-    <t>791.0</t>
-  </si>
-  <si>
-    <t>368.0</t>
-  </si>
-  <si>
-    <t>376.0</t>
-  </si>
-  <si>
-    <t>205.0</t>
-  </si>
-  <si>
-    <t>574.0</t>
-  </si>
-  <si>
-    <t>345.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
+    <t>05/30/2020 14:36:55</t>
+  </si>
+  <si>
+    <t>05/30/2020 14:37:23</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2020-05-17</t>
+  </si>
+  <si>
+    <t>344831.0</t>
+  </si>
+  <si>
+    <t>6333.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>05/28/2020 16:55:05</t>
-  </si>
-  <si>
-    <t>2020-05-17</t>
-  </si>
-  <si>
-    <t>344831.4700000001</t>
-  </si>
-  <si>
-    <t>6333.0</t>
-  </si>
-  <si>
-    <t>93.65587939698486</t>
-  </si>
-  <si>
-    <t>05/29/2020 16:53:29</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>344831.47</t>
-  </si>
-  <si>
-    <t>93.65587939698489</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>05/30/2020 00:13:24</t>
+    <t>05/30/2020 15:25:30</t>
   </si>
   <si>
     <t>B00UMVW4VA</t>
@@ -401,7 +302,7 @@
     <t>120.0</t>
   </si>
   <si>
-    <t>05/30/2020 00:13:55</t>
+    <t>05/30/2020 15:25:58</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1093,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1122,7 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1232,7 +1133,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1272,7 +1173,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E2" sqref="E2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,19 +1233,19 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="H2" t="n">
-        <v>1.1641532182693481E-10</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1361,19 +1262,19 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1390,19 +1291,19 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.8421709430404007E-14</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1487,19 +1388,19 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1512,19 +1413,19 @@
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1537,19 +1438,19 @@
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1562,19 +1463,19 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1587,19 +1488,19 @@
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1612,19 +1513,19 @@
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1637,19 +1538,19 @@
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1662,19 +1563,19 @@
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1687,19 +1588,19 @@
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1712,19 +1613,19 @@
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="H11" t="n">
         <v>0.0</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1741,19 +1642,19 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="H12" t="n">
         <v>0.0</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1766,19 +1667,19 @@
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="H13" t="n">
         <v>0.0</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1791,19 +1692,19 @@
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1816,19 +1717,19 @@
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1841,19 +1742,19 @@
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="H16" t="n">
         <v>0.0</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1866,19 +1767,19 @@
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="H17" t="n">
         <v>0.0</v>
       </c>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1891,19 +1792,19 @@
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="H18" t="n">
         <v>0.0</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1916,19 +1817,19 @@
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="H19" t="n">
         <v>0.0</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1941,19 +1842,19 @@
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="H20" t="n">
         <v>0.0</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1966,19 +1867,19 @@
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="H21" t="n">
         <v>0.0</v>
       </c>
       <c r="I21" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
